--- a/data/pca/factorExposure/factorExposure_2012-02-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-02-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01688771390252686</v>
+        <v>0.01619813146370616</v>
       </c>
       <c r="C2">
-        <v>0.02996670819812374</v>
+        <v>0.02526665284960055</v>
       </c>
       <c r="D2">
-        <v>-0.004715665307412411</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.006779050196978561</v>
+      </c>
+      <c r="E2">
+        <v>-0.014820215641268</v>
+      </c>
+      <c r="F2">
+        <v>-0.01487432643867293</v>
+      </c>
+      <c r="G2">
+        <v>-0.01920531206778766</v>
+      </c>
+      <c r="H2">
+        <v>0.04895706926442005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0742642699671788</v>
+        <v>0.08841947924717276</v>
       </c>
       <c r="C4">
-        <v>0.05368086187310981</v>
+        <v>0.04156500931419549</v>
       </c>
       <c r="D4">
-        <v>-0.08164120020118411</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06471741880789746</v>
+      </c>
+      <c r="E4">
+        <v>-0.008012610504440963</v>
+      </c>
+      <c r="F4">
+        <v>-0.03656879036661161</v>
+      </c>
+      <c r="G4">
+        <v>-0.002394636697930426</v>
+      </c>
+      <c r="H4">
+        <v>-0.03957420128545963</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1102877864934023</v>
+        <v>0.119703713780542</v>
       </c>
       <c r="C6">
-        <v>0.0519723456994621</v>
+        <v>0.03506013886005596</v>
       </c>
       <c r="D6">
-        <v>-0.001565137305639848</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01313191509643238</v>
+      </c>
+      <c r="E6">
+        <v>0.01908624494756148</v>
+      </c>
+      <c r="F6">
+        <v>-0.05613671185912315</v>
+      </c>
+      <c r="G6">
+        <v>-0.03577702343167403</v>
+      </c>
+      <c r="H6">
+        <v>0.1150970778872288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05259855583973069</v>
+        <v>0.0644664837067699</v>
       </c>
       <c r="C7">
-        <v>0.02431132514328445</v>
+        <v>0.0155097688596284</v>
       </c>
       <c r="D7">
-        <v>-0.04472018935564237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04588890943347051</v>
+      </c>
+      <c r="E7">
+        <v>-0.03825957300491615</v>
+      </c>
+      <c r="F7">
+        <v>-0.0381136005916313</v>
+      </c>
+      <c r="G7">
+        <v>0.03653369635248341</v>
+      </c>
+      <c r="H7">
+        <v>-0.009024424734111391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03980533322305798</v>
+        <v>0.04104779038078922</v>
       </c>
       <c r="C8">
-        <v>0.01483416979506293</v>
+        <v>0.01078742969483966</v>
       </c>
       <c r="D8">
-        <v>-0.05984066099870489</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02378386312741327</v>
+      </c>
+      <c r="E8">
+        <v>-0.02280228209945694</v>
+      </c>
+      <c r="F8">
+        <v>-0.05657531628439048</v>
+      </c>
+      <c r="G8">
+        <v>-0.0578620762329273</v>
+      </c>
+      <c r="H8">
+        <v>0.005954715895569692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.069260879830344</v>
+        <v>0.0798264239786519</v>
       </c>
       <c r="C9">
-        <v>0.04154490901412859</v>
+        <v>0.02938518781253863</v>
       </c>
       <c r="D9">
-        <v>-0.07072960997951047</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06179246457670547</v>
+      </c>
+      <c r="E9">
+        <v>-0.02942913171841599</v>
+      </c>
+      <c r="F9">
+        <v>-0.03530776648738434</v>
+      </c>
+      <c r="G9">
+        <v>-0.009623380160830638</v>
+      </c>
+      <c r="H9">
+        <v>-0.04895666089638342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03012135813703374</v>
+        <v>0.03397135875342266</v>
       </c>
       <c r="C10">
-        <v>0.02391250456169038</v>
+        <v>0.04065651533747271</v>
       </c>
       <c r="D10">
-        <v>0.1707026784297888</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.17101835934128</v>
+      </c>
+      <c r="E10">
+        <v>-0.04123722738244261</v>
+      </c>
+      <c r="F10">
+        <v>-0.05218562366290096</v>
+      </c>
+      <c r="G10">
+        <v>0.02309331538368822</v>
+      </c>
+      <c r="H10">
+        <v>0.03518411248696923</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07307697086752526</v>
+        <v>0.07740795629351353</v>
       </c>
       <c r="C11">
-        <v>0.04422154906824999</v>
+        <v>0.02646314604127571</v>
       </c>
       <c r="D11">
-        <v>-0.05859565737813211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06204674542277192</v>
+      </c>
+      <c r="E11">
+        <v>0.005184163673629104</v>
+      </c>
+      <c r="F11">
+        <v>-0.02937448587599315</v>
+      </c>
+      <c r="G11">
+        <v>-0.0009382454519194743</v>
+      </c>
+      <c r="H11">
+        <v>-0.08668947916531394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.06043580496577422</v>
+        <v>0.06904802501774208</v>
       </c>
       <c r="C12">
-        <v>0.05178538088849618</v>
+        <v>0.03746610736304268</v>
       </c>
       <c r="D12">
-        <v>-0.04770352017060517</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04753749617087435</v>
+      </c>
+      <c r="E12">
+        <v>-0.0126468523442925</v>
+      </c>
+      <c r="F12">
+        <v>-0.02177014012617133</v>
+      </c>
+      <c r="G12">
+        <v>-0.003070131117198947</v>
+      </c>
+      <c r="H12">
+        <v>-0.04134640242746202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06200691680092492</v>
+        <v>0.06558812462799184</v>
       </c>
       <c r="C13">
-        <v>0.03385523601739272</v>
+        <v>0.02135086699768758</v>
       </c>
       <c r="D13">
-        <v>-0.06220008975012162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04203243723519633</v>
+      </c>
+      <c r="E13">
+        <v>-0.01722367178819598</v>
+      </c>
+      <c r="F13">
+        <v>-0.01039639825732789</v>
+      </c>
+      <c r="G13">
+        <v>0.005872745134974565</v>
+      </c>
+      <c r="H13">
+        <v>-0.05294236276978921</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0337246855443334</v>
+        <v>0.04037310642059933</v>
       </c>
       <c r="C14">
-        <v>0.0314998048337894</v>
+        <v>0.02825497011555719</v>
       </c>
       <c r="D14">
-        <v>-0.002914703227126926</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01017610879460699</v>
+      </c>
+      <c r="E14">
+        <v>-0.03093132296536661</v>
+      </c>
+      <c r="F14">
+        <v>-0.01365264138863452</v>
+      </c>
+      <c r="G14">
+        <v>-0.005500778974068573</v>
+      </c>
+      <c r="H14">
+        <v>-0.06044892880525756</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04099537464135977</v>
+        <v>0.04050095206299519</v>
       </c>
       <c r="C15">
-        <v>0.008992976726085886</v>
+        <v>0.003016257394516447</v>
       </c>
       <c r="D15">
-        <v>-0.01750800585661537</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.004563989474127286</v>
+      </c>
+      <c r="E15">
+        <v>-0.03459963147029144</v>
+      </c>
+      <c r="F15">
+        <v>0.0004443324178918226</v>
+      </c>
+      <c r="G15">
+        <v>-0.02385241211596865</v>
+      </c>
+      <c r="H15">
+        <v>-0.03590845614061556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06183594076559139</v>
+        <v>0.07160131245157014</v>
       </c>
       <c r="C16">
-        <v>0.04130561108854116</v>
+        <v>0.02825799840637573</v>
       </c>
       <c r="D16">
-        <v>-0.04789390406994743</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06025620002216658</v>
+      </c>
+      <c r="E16">
+        <v>-0.003716707592812568</v>
+      </c>
+      <c r="F16">
+        <v>-0.0276431494671422</v>
+      </c>
+      <c r="G16">
+        <v>0.002916126631327692</v>
+      </c>
+      <c r="H16">
+        <v>-0.05377656717070941</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06236019473071685</v>
+        <v>0.06330121690749248</v>
       </c>
       <c r="C20">
-        <v>0.02423049580140441</v>
+        <v>0.0101810185179807</v>
       </c>
       <c r="D20">
-        <v>-0.05276337946962602</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03823682519157501</v>
+      </c>
+      <c r="E20">
+        <v>-0.01805318205605722</v>
+      </c>
+      <c r="F20">
+        <v>-0.02709359965867811</v>
+      </c>
+      <c r="G20">
+        <v>-0.01537536903259456</v>
+      </c>
+      <c r="H20">
+        <v>-0.04694106323873508</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02576224201457017</v>
+        <v>0.02605795252185514</v>
       </c>
       <c r="C21">
-        <v>-0.003735821447480789</v>
+        <v>-0.0102798251902184</v>
       </c>
       <c r="D21">
-        <v>-0.02834504342479737</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02552892161916261</v>
+      </c>
+      <c r="E21">
+        <v>-0.04564906592916727</v>
+      </c>
+      <c r="F21">
+        <v>0.01455248037730997</v>
+      </c>
+      <c r="G21">
+        <v>-0.007960857185462694</v>
+      </c>
+      <c r="H21">
+        <v>0.04751221147199507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07845143827196228</v>
+        <v>0.07287023970457815</v>
       </c>
       <c r="C22">
-        <v>0.06246854552259899</v>
+        <v>0.04096018922080211</v>
       </c>
       <c r="D22">
-        <v>-0.1176981159662338</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.08195755517991318</v>
+      </c>
+      <c r="E22">
+        <v>-0.599379250456792</v>
+      </c>
+      <c r="F22">
+        <v>0.1650266958181437</v>
+      </c>
+      <c r="G22">
+        <v>0.07316343575287437</v>
+      </c>
+      <c r="H22">
+        <v>0.1568884651152791</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07939790130802797</v>
+        <v>0.07361008948402421</v>
       </c>
       <c r="C23">
-        <v>0.06118470105781366</v>
+        <v>0.0394091223598222</v>
       </c>
       <c r="D23">
-        <v>-0.1192247506923967</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.08289329211413764</v>
+      </c>
+      <c r="E23">
+        <v>-0.598684007587302</v>
+      </c>
+      <c r="F23">
+        <v>0.1640322071404913</v>
+      </c>
+      <c r="G23">
+        <v>0.0719406391264736</v>
+      </c>
+      <c r="H23">
+        <v>0.1525301109483831</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0743161907537002</v>
+        <v>0.08093286561703517</v>
       </c>
       <c r="C24">
-        <v>0.05128104139774355</v>
+        <v>0.03440336547277519</v>
       </c>
       <c r="D24">
-        <v>-0.06086301878814492</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06069322966848375</v>
+      </c>
+      <c r="E24">
+        <v>-0.0170986197940313</v>
+      </c>
+      <c r="F24">
+        <v>-0.03641723956166542</v>
+      </c>
+      <c r="G24">
+        <v>-0.0129416236978723</v>
+      </c>
+      <c r="H24">
+        <v>-0.0502132760221533</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07363892795226994</v>
+        <v>0.07912228034689246</v>
       </c>
       <c r="C25">
-        <v>0.0542309988105794</v>
+        <v>0.03725045993250205</v>
       </c>
       <c r="D25">
-        <v>-0.06740052544730848</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05229569052082562</v>
+      </c>
+      <c r="E25">
+        <v>-0.01951772533977162</v>
+      </c>
+      <c r="F25">
+        <v>-0.02720891157948725</v>
+      </c>
+      <c r="G25">
+        <v>-0.02042748529263711</v>
+      </c>
+      <c r="H25">
+        <v>-0.05475088756779493</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04604375896272348</v>
+        <v>0.04771552537568882</v>
       </c>
       <c r="C26">
-        <v>0.009986232787327357</v>
+        <v>0.003091181713314764</v>
       </c>
       <c r="D26">
-        <v>-0.01274839735410691</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01781398191364293</v>
+      </c>
+      <c r="E26">
+        <v>-0.047685343290897</v>
+      </c>
+      <c r="F26">
+        <v>-0.02709607783219382</v>
+      </c>
+      <c r="G26">
+        <v>0.009167694061128721</v>
+      </c>
+      <c r="H26">
+        <v>-0.05737524664323244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05358829361380543</v>
+        <v>0.06186084878899349</v>
       </c>
       <c r="C28">
-        <v>0.06512937647680916</v>
+        <v>0.08774934001918853</v>
       </c>
       <c r="D28">
-        <v>0.3114889476903389</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.3056666623454039</v>
+      </c>
+      <c r="E28">
+        <v>-0.03215580122620265</v>
+      </c>
+      <c r="F28">
+        <v>-0.05427008502990104</v>
+      </c>
+      <c r="G28">
+        <v>-0.02992621512603623</v>
+      </c>
+      <c r="H28">
+        <v>0.04319400197128361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04214930132223775</v>
+        <v>0.04865688051774301</v>
       </c>
       <c r="C29">
-        <v>0.02934675803227794</v>
+        <v>0.02579506577026467</v>
       </c>
       <c r="D29">
-        <v>-0.008605878641795869</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.008284006125061572</v>
+      </c>
+      <c r="E29">
+        <v>-0.05952555055447645</v>
+      </c>
+      <c r="F29">
+        <v>-0.008776056790811778</v>
+      </c>
+      <c r="G29">
+        <v>0.0100185456628036</v>
+      </c>
+      <c r="H29">
+        <v>-0.07526989060229153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1274112324149424</v>
+        <v>0.1309094500079753</v>
       </c>
       <c r="C30">
-        <v>0.08616961446685792</v>
+        <v>0.06119555464308001</v>
       </c>
       <c r="D30">
-        <v>-0.1013788168675908</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.07026968201204326</v>
+      </c>
+      <c r="E30">
+        <v>-0.07881691307560373</v>
+      </c>
+      <c r="F30">
+        <v>0.00795290146621869</v>
+      </c>
+      <c r="G30">
+        <v>-0.08046142676683132</v>
+      </c>
+      <c r="H30">
+        <v>0.04567295769407836</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04437073496975828</v>
+        <v>0.04910265420067306</v>
       </c>
       <c r="C31">
-        <v>0.02222787983960749</v>
+        <v>0.01417552387022702</v>
       </c>
       <c r="D31">
-        <v>-0.02186791232325399</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02802729427007</v>
+      </c>
+      <c r="E31">
+        <v>-0.02377416853148914</v>
+      </c>
+      <c r="F31">
+        <v>-0.01183699151700479</v>
+      </c>
+      <c r="G31">
+        <v>0.02457915689771933</v>
+      </c>
+      <c r="H31">
+        <v>-0.06327321152132943</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03909278098614093</v>
+        <v>0.03951752550332607</v>
       </c>
       <c r="C32">
-        <v>0.02706235151623659</v>
+        <v>0.02197806904644273</v>
       </c>
       <c r="D32">
-        <v>-0.02420091860507439</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01107286544628167</v>
+      </c>
+      <c r="E32">
+        <v>-0.05176958295845306</v>
+      </c>
+      <c r="F32">
+        <v>0.008228237368025722</v>
+      </c>
+      <c r="G32">
+        <v>-0.02725926480508431</v>
+      </c>
+      <c r="H32">
+        <v>-0.07103176575273387</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08490720117459696</v>
+        <v>0.09638384412353183</v>
       </c>
       <c r="C33">
-        <v>0.0406016094970045</v>
+        <v>0.02651239012383721</v>
       </c>
       <c r="D33">
-        <v>-0.06017215839355923</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.0453377744861219</v>
+      </c>
+      <c r="E33">
+        <v>-0.01451915605750564</v>
+      </c>
+      <c r="F33">
+        <v>-0.006256891050789609</v>
+      </c>
+      <c r="G33">
+        <v>0.007214498508425791</v>
+      </c>
+      <c r="H33">
+        <v>-0.05294970484732857</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05879554089501257</v>
+        <v>0.06399041729662079</v>
       </c>
       <c r="C34">
-        <v>0.02611022330276006</v>
+        <v>0.01223052382962961</v>
       </c>
       <c r="D34">
-        <v>-0.05705142854325085</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05098591668409699</v>
+      </c>
+      <c r="E34">
+        <v>-0.007670144890512783</v>
+      </c>
+      <c r="F34">
+        <v>-0.01858008674131634</v>
+      </c>
+      <c r="G34">
+        <v>0.0006301189915338828</v>
+      </c>
+      <c r="H34">
+        <v>-0.06078507935833836</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03743430209563826</v>
+        <v>0.03936763626839827</v>
       </c>
       <c r="C35">
-        <v>0.007547876658696128</v>
+        <v>0.002823933416675807</v>
       </c>
       <c r="D35">
-        <v>-0.01528103621050033</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01021632405058612</v>
+      </c>
+      <c r="E35">
+        <v>-0.02034198351882937</v>
+      </c>
+      <c r="F35">
+        <v>0.01434151760806065</v>
+      </c>
+      <c r="G35">
+        <v>0.00886261332482146</v>
+      </c>
+      <c r="H35">
+        <v>-0.01689854374502299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02266633310878996</v>
+        <v>0.02888575133306349</v>
       </c>
       <c r="C36">
-        <v>0.01694479300660185</v>
+        <v>0.01471298538157131</v>
       </c>
       <c r="D36">
-        <v>-0.02358133910776185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01627508237996939</v>
+      </c>
+      <c r="E36">
+        <v>-0.03216213691165174</v>
+      </c>
+      <c r="F36">
+        <v>-0.02063692206153332</v>
+      </c>
+      <c r="G36">
+        <v>0.008544062505443656</v>
+      </c>
+      <c r="H36">
+        <v>-0.04704177770408131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04199796315456591</v>
+        <v>0.04465379872872867</v>
       </c>
       <c r="C38">
-        <v>0.001790929075504888</v>
+        <v>-0.00389780926617598</v>
       </c>
       <c r="D38">
-        <v>-0.01608584502052451</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01733892806770989</v>
+      </c>
+      <c r="E38">
+        <v>-0.05328295285433228</v>
+      </c>
+      <c r="F38">
+        <v>0.004915560020915494</v>
+      </c>
+      <c r="G38">
+        <v>-0.00719209197822806</v>
+      </c>
+      <c r="H38">
+        <v>-0.03676546750599238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09313090170125511</v>
+        <v>0.1025543384012501</v>
       </c>
       <c r="C39">
-        <v>0.07080930021756335</v>
+        <v>0.05068661407219422</v>
       </c>
       <c r="D39">
-        <v>-0.05662678922300897</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06193954731310672</v>
+      </c>
+      <c r="E39">
+        <v>-0.004043177174795297</v>
+      </c>
+      <c r="F39">
+        <v>0.001495911354047896</v>
+      </c>
+      <c r="G39">
+        <v>-0.03618087707474959</v>
+      </c>
+      <c r="H39">
+        <v>-0.04581996083485683</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07825863700645891</v>
+        <v>0.07129571445749514</v>
       </c>
       <c r="C40">
-        <v>0.03266678041739326</v>
+        <v>0.01402812436443852</v>
       </c>
       <c r="D40">
-        <v>0.0002647843349929987</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.009768156747095694</v>
+      </c>
+      <c r="E40">
+        <v>-0.02150048969927531</v>
+      </c>
+      <c r="F40">
+        <v>0.058582274254438</v>
+      </c>
+      <c r="G40">
+        <v>-0.05852988380770554</v>
+      </c>
+      <c r="H40">
+        <v>0.09885900679176421</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04278205765541877</v>
+        <v>0.04482936007147722</v>
       </c>
       <c r="C41">
-        <v>0.004932698498503829</v>
+        <v>-0.002991519413281569</v>
       </c>
       <c r="D41">
-        <v>-0.03177986879202076</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03254118256928147</v>
+      </c>
+      <c r="E41">
+        <v>-8.725218798095212e-05</v>
+      </c>
+      <c r="F41">
+        <v>0.01546712527744937</v>
+      </c>
+      <c r="G41">
+        <v>-0.008666527045517326</v>
+      </c>
+      <c r="H41">
+        <v>-0.03345961962702022</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05106787679810253</v>
+        <v>0.05936230203708114</v>
       </c>
       <c r="C43">
-        <v>0.02530007783065192</v>
+        <v>0.0183764565671954</v>
       </c>
       <c r="D43">
-        <v>-0.01534147503151133</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02428680528347911</v>
+      </c>
+      <c r="E43">
+        <v>-0.02097122850444558</v>
+      </c>
+      <c r="F43">
+        <v>-0.01251772302857313</v>
+      </c>
+      <c r="G43">
+        <v>0.01717822635048711</v>
+      </c>
+      <c r="H43">
+        <v>-0.05750813683036535</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09720934026908087</v>
+        <v>0.09815652893988704</v>
       </c>
       <c r="C44">
-        <v>0.08637757383535097</v>
+        <v>0.06358063527572305</v>
       </c>
       <c r="D44">
-        <v>-0.07397603089663957</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05324586761962997</v>
+      </c>
+      <c r="E44">
+        <v>-0.08458228366503706</v>
+      </c>
+      <c r="F44">
+        <v>-0.06640912850194204</v>
+      </c>
+      <c r="G44">
+        <v>-0.03360617031422476</v>
+      </c>
+      <c r="H44">
+        <v>-0.02515433749436388</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02605305429683219</v>
+        <v>0.03402574956418852</v>
       </c>
       <c r="C46">
-        <v>0.01527315842713471</v>
+        <v>0.01168206626530667</v>
       </c>
       <c r="D46">
-        <v>-0.02529093173802624</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03512879323690022</v>
+      </c>
+      <c r="E46">
+        <v>-0.03550821685076173</v>
+      </c>
+      <c r="F46">
+        <v>-0.01357821450687137</v>
+      </c>
+      <c r="G46">
+        <v>0.01057637553663593</v>
+      </c>
+      <c r="H46">
+        <v>-0.03539574106202309</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03076184519796976</v>
+        <v>0.03867300043955277</v>
       </c>
       <c r="C47">
-        <v>0.02446155254948641</v>
+        <v>0.02124268461928255</v>
       </c>
       <c r="D47">
-        <v>-0.01064287283677967</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.008460512369239807</v>
+      </c>
+      <c r="E47">
+        <v>-0.04525122184497048</v>
+      </c>
+      <c r="F47">
+        <v>-0.0102510950364283</v>
+      </c>
+      <c r="G47">
+        <v>0.04443991817681096</v>
+      </c>
+      <c r="H47">
+        <v>-0.02550005903996956</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03416464512197284</v>
+        <v>0.03832878087682175</v>
       </c>
       <c r="C48">
-        <v>0.01804409565797277</v>
+        <v>0.01098721827581607</v>
       </c>
       <c r="D48">
-        <v>-0.03017794216210376</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0198807118003294</v>
+      </c>
+      <c r="E48">
+        <v>-0.04059557615388287</v>
+      </c>
+      <c r="F48">
+        <v>-0.007122728177242394</v>
+      </c>
+      <c r="G48">
+        <v>-0.01287028027130868</v>
+      </c>
+      <c r="H48">
+        <v>-0.04082571879652953</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1623924368533865</v>
+        <v>0.1895690268742799</v>
       </c>
       <c r="C49">
-        <v>0.04953451850877087</v>
+        <v>0.03089914097317166</v>
       </c>
       <c r="D49">
-        <v>0.007681450024154538</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02810070621893501</v>
+      </c>
+      <c r="E49">
+        <v>0.1552253669877472</v>
+      </c>
+      <c r="F49">
+        <v>-0.06020674454870607</v>
+      </c>
+      <c r="G49">
+        <v>0.05834214844018167</v>
+      </c>
+      <c r="H49">
+        <v>0.2253711008965566</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04032987695220665</v>
+        <v>0.04654086778557928</v>
       </c>
       <c r="C50">
-        <v>0.02053447223908477</v>
+        <v>0.01431943658155176</v>
       </c>
       <c r="D50">
-        <v>-0.04006638130893008</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03302558382907474</v>
+      </c>
+      <c r="E50">
+        <v>-0.04258192640187199</v>
+      </c>
+      <c r="F50">
+        <v>-0.01465549241423101</v>
+      </c>
+      <c r="G50">
+        <v>0.02283668524588532</v>
+      </c>
+      <c r="H50">
+        <v>-0.06554896617045944</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.0284255943856596</v>
+        <v>0.03010745770133445</v>
       </c>
       <c r="C51">
-        <v>0.01060001364819986</v>
+        <v>0.004226572389355033</v>
       </c>
       <c r="D51">
-        <v>-0.009603038047526602</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0121405422327945</v>
+      </c>
+      <c r="E51">
+        <v>-0.01303084173080036</v>
+      </c>
+      <c r="F51">
+        <v>-0.01543903357525439</v>
+      </c>
+      <c r="G51">
+        <v>0.0008562245999828122</v>
+      </c>
+      <c r="H51">
+        <v>0.0008295693591247395</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1552139406484967</v>
+        <v>0.1632066301153571</v>
       </c>
       <c r="C53">
-        <v>0.07199898371389445</v>
+        <v>0.04968525531177775</v>
       </c>
       <c r="D53">
-        <v>-0.008886570803386775</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01948149614155333</v>
+      </c>
+      <c r="E53">
+        <v>0.03113354503942344</v>
+      </c>
+      <c r="F53">
+        <v>-0.01552169187419027</v>
+      </c>
+      <c r="G53">
+        <v>0.02435049102813617</v>
+      </c>
+      <c r="H53">
+        <v>-0.1783677064422984</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05826576807286507</v>
+        <v>0.05880401276586961</v>
       </c>
       <c r="C54">
-        <v>0.02387988281091421</v>
+        <v>0.01344193511471777</v>
       </c>
       <c r="D54">
-        <v>-0.02102927015555043</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01541892725499814</v>
+      </c>
+      <c r="E54">
+        <v>-0.04612513025556325</v>
+      </c>
+      <c r="F54">
+        <v>-0.006050678104148803</v>
+      </c>
+      <c r="G54">
+        <v>-0.01187870314336482</v>
+      </c>
+      <c r="H54">
+        <v>-0.04890987091733396</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1003493374263956</v>
+        <v>0.1041413215571924</v>
       </c>
       <c r="C55">
-        <v>0.04972042989585476</v>
+        <v>0.03348861151870728</v>
       </c>
       <c r="D55">
-        <v>-0.01872280531870381</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02344705302780123</v>
+      </c>
+      <c r="E55">
+        <v>-0.009880749265562237</v>
+      </c>
+      <c r="F55">
+        <v>-0.01471499733993607</v>
+      </c>
+      <c r="G55">
+        <v>0.01640156423119363</v>
+      </c>
+      <c r="H55">
+        <v>-0.1544470569176683</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1517913537238418</v>
+        <v>0.1619685277040199</v>
       </c>
       <c r="C56">
-        <v>0.08453595129092696</v>
+        <v>0.06100285959063859</v>
       </c>
       <c r="D56">
-        <v>-0.01520031453361414</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02326609613733781</v>
+      </c>
+      <c r="E56">
+        <v>0.02173439044192164</v>
+      </c>
+      <c r="F56">
+        <v>-0.03253139209332265</v>
+      </c>
+      <c r="G56">
+        <v>0.03762438287816457</v>
+      </c>
+      <c r="H56">
+        <v>-0.1771825816743025</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1306365574417082</v>
+        <v>0.1009147155788076</v>
       </c>
       <c r="C58">
-        <v>-0.002512088384935573</v>
+        <v>-0.0430399677866876</v>
       </c>
       <c r="D58">
-        <v>-0.03069598750498217</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03328014288815977</v>
+      </c>
+      <c r="E58">
+        <v>-0.1441466613080986</v>
+      </c>
+      <c r="F58">
+        <v>0.003140843792726855</v>
+      </c>
+      <c r="G58">
+        <v>0.01552886250086732</v>
+      </c>
+      <c r="H58">
+        <v>0.2245444466331847</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1231440988332456</v>
+        <v>0.1375244320963044</v>
       </c>
       <c r="C59">
-        <v>0.07214078998539071</v>
+        <v>0.09432360029126839</v>
       </c>
       <c r="D59">
-        <v>0.369054194025176</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3631814991625353</v>
+      </c>
+      <c r="E59">
+        <v>-0.02524949885853177</v>
+      </c>
+      <c r="F59">
+        <v>-0.01409727432015473</v>
+      </c>
+      <c r="G59">
+        <v>0.01930355984544716</v>
+      </c>
+      <c r="H59">
+        <v>0.001620594903002995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2057196999684764</v>
+        <v>0.234516562566002</v>
       </c>
       <c r="C60">
-        <v>0.08935681585639953</v>
+        <v>0.06248951157684542</v>
       </c>
       <c r="D60">
-        <v>-0.02368475162860856</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0445691948657566</v>
+      </c>
+      <c r="E60">
+        <v>0.09825961720606019</v>
+      </c>
+      <c r="F60">
+        <v>-0.05747993668828991</v>
+      </c>
+      <c r="G60">
+        <v>-0.02131664057411528</v>
+      </c>
+      <c r="H60">
+        <v>0.143996297729301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08316093814165955</v>
+        <v>0.08968599854950797</v>
       </c>
       <c r="C61">
-        <v>0.04977802512930651</v>
+        <v>0.03593591418873984</v>
       </c>
       <c r="D61">
-        <v>-0.04434537766193966</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04175689097289553</v>
+      </c>
+      <c r="E61">
+        <v>-0.001155977377378893</v>
+      </c>
+      <c r="F61">
+        <v>-0.001224841058395511</v>
+      </c>
+      <c r="G61">
+        <v>-9.995216935410011e-05</v>
+      </c>
+      <c r="H61">
+        <v>-0.06251346080731963</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1325239288438168</v>
+        <v>0.1388771456027473</v>
       </c>
       <c r="C62">
-        <v>0.0594689440746403</v>
+        <v>0.03652305437880857</v>
       </c>
       <c r="D62">
-        <v>-0.01823188521660318</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.03274783669828364</v>
+      </c>
+      <c r="E62">
+        <v>0.0600321495050883</v>
+      </c>
+      <c r="F62">
+        <v>-0.01020483633290337</v>
+      </c>
+      <c r="G62">
+        <v>-0.003289539766029522</v>
+      </c>
+      <c r="H62">
+        <v>-0.1818867996199243</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05188372040484572</v>
+        <v>0.05131853870033645</v>
       </c>
       <c r="C63">
-        <v>0.02263115917434747</v>
+        <v>0.01262926620804576</v>
       </c>
       <c r="D63">
-        <v>-0.02235061537415176</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0197624326724958</v>
+      </c>
+      <c r="E63">
+        <v>-0.04885748213209413</v>
+      </c>
+      <c r="F63">
+        <v>0.007092359471942588</v>
+      </c>
+      <c r="G63">
+        <v>-0.01964542861802863</v>
+      </c>
+      <c r="H63">
+        <v>-0.05282776349355563</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1032521469828695</v>
+        <v>0.1079839205907074</v>
       </c>
       <c r="C64">
-        <v>0.03086239805253769</v>
+        <v>0.01618391441018073</v>
       </c>
       <c r="D64">
-        <v>-0.0431453134138492</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03182426599829578</v>
+      </c>
+      <c r="E64">
+        <v>-0.03155343770708529</v>
+      </c>
+      <c r="F64">
+        <v>-0.03835180216438202</v>
+      </c>
+      <c r="G64">
+        <v>-0.04727122580985035</v>
+      </c>
+      <c r="H64">
+        <v>-0.04681140979540342</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1268454996620747</v>
+        <v>0.1267393038962223</v>
       </c>
       <c r="C65">
-        <v>0.05818302418192708</v>
+        <v>0.03972760197039127</v>
       </c>
       <c r="D65">
-        <v>0.01201626943845894</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.006766344066214605</v>
+      </c>
+      <c r="E65">
+        <v>-0.001779577155065525</v>
+      </c>
+      <c r="F65">
+        <v>-0.0547970300250089</v>
+      </c>
+      <c r="G65">
+        <v>-0.06245946275366184</v>
+      </c>
+      <c r="H65">
+        <v>0.1465655441970558</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1484343830313185</v>
+        <v>0.1546468367336847</v>
       </c>
       <c r="C66">
-        <v>0.06881953096087992</v>
+        <v>0.04011937077033929</v>
       </c>
       <c r="D66">
-        <v>-0.1101150004093096</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09728650712713671</v>
+      </c>
+      <c r="E66">
+        <v>0.02372711700315673</v>
+      </c>
+      <c r="F66">
+        <v>-0.00779282558841767</v>
+      </c>
+      <c r="G66">
+        <v>-0.04081026581716293</v>
+      </c>
+      <c r="H66">
+        <v>-0.1134562307892282</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07504442753027056</v>
+        <v>0.08476752418145087</v>
       </c>
       <c r="C67">
-        <v>0.009827336229724299</v>
+        <v>0.001253872814982037</v>
       </c>
       <c r="D67">
-        <v>-0.01971010814682581</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02918482072111603</v>
+      </c>
+      <c r="E67">
+        <v>-0.0208382165183839</v>
+      </c>
+      <c r="F67">
+        <v>-0.02183678011178644</v>
+      </c>
+      <c r="G67">
+        <v>0.01099313012433671</v>
+      </c>
+      <c r="H67">
+        <v>-0.04015047173740175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05951292085381622</v>
+        <v>0.05761781798591775</v>
       </c>
       <c r="C68">
-        <v>0.04612246615702033</v>
+        <v>0.06475252132489426</v>
       </c>
       <c r="D68">
-        <v>0.2552005316004784</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2689366630781785</v>
+      </c>
+      <c r="E68">
+        <v>-0.03729942561421069</v>
+      </c>
+      <c r="F68">
+        <v>-0.01378053417779809</v>
+      </c>
+      <c r="G68">
+        <v>0.01399575675660396</v>
+      </c>
+      <c r="H68">
+        <v>-0.008254365022140676</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05205755556101497</v>
+        <v>0.05308240451388888</v>
       </c>
       <c r="C69">
-        <v>0.01534815969355284</v>
+        <v>0.005189832801992523</v>
       </c>
       <c r="D69">
-        <v>-0.02079258037535212</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.0160375469102184</v>
+      </c>
+      <c r="E69">
+        <v>-0.02640366304135005</v>
+      </c>
+      <c r="F69">
+        <v>0.008026143349144591</v>
+      </c>
+      <c r="G69">
+        <v>0.0241218241954357</v>
+      </c>
+      <c r="H69">
+        <v>-0.04712606146055198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004552820343145764</v>
+        <v>0.0269848876587919</v>
       </c>
       <c r="C70">
-        <v>-0.006035549218384267</v>
+        <v>-0.00163852088953082</v>
       </c>
       <c r="D70">
-        <v>-0.004214737353470644</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.007312765534610066</v>
+      </c>
+      <c r="E70">
+        <v>0.02350867119816889</v>
+      </c>
+      <c r="F70">
+        <v>-0.01120108476297224</v>
+      </c>
+      <c r="G70">
+        <v>0.02936326929329989</v>
+      </c>
+      <c r="H70">
+        <v>0.02633411345154086</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05846487989535288</v>
+        <v>0.05988723022152348</v>
       </c>
       <c r="C71">
-        <v>0.04550269719161235</v>
+        <v>0.06960235448257915</v>
       </c>
       <c r="D71">
-        <v>0.2927747837010696</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2946250833212864</v>
+      </c>
+      <c r="E71">
+        <v>-0.03351123094406475</v>
+      </c>
+      <c r="F71">
+        <v>-0.04230455343945057</v>
+      </c>
+      <c r="G71">
+        <v>0.002082765608423211</v>
+      </c>
+      <c r="H71">
+        <v>-0.008308066582988568</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1434192650171082</v>
+        <v>0.1444635583302122</v>
       </c>
       <c r="C72">
-        <v>0.05945121521216062</v>
+        <v>0.03252025738775163</v>
       </c>
       <c r="D72">
-        <v>-0.001635003197074981</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0004356135041906981</v>
+      </c>
+      <c r="E72">
+        <v>0.08421632361055174</v>
+      </c>
+      <c r="F72">
+        <v>0.1669659915679882</v>
+      </c>
+      <c r="G72">
+        <v>-0.1180108802721379</v>
+      </c>
+      <c r="H72">
+        <v>-0.01450795627624149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2842498929628652</v>
+        <v>0.2892783867568383</v>
       </c>
       <c r="C73">
-        <v>0.0957160893741774</v>
+        <v>0.03670448978435999</v>
       </c>
       <c r="D73">
-        <v>-0.04912163173953806</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09365654529745196</v>
+      </c>
+      <c r="E73">
+        <v>0.214930286727003</v>
+      </c>
+      <c r="F73">
+        <v>-0.09791155285879873</v>
+      </c>
+      <c r="G73">
+        <v>0.1324891488287363</v>
+      </c>
+      <c r="H73">
+        <v>0.5077898783877214</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08150773708097112</v>
+        <v>0.09182142967489715</v>
       </c>
       <c r="C74">
-        <v>0.07478588043091935</v>
+        <v>0.06019971578896329</v>
       </c>
       <c r="D74">
-        <v>-0.01137866062811902</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03160803623579935</v>
+      </c>
+      <c r="E74">
+        <v>0.004170231155854306</v>
+      </c>
+      <c r="F74">
+        <v>-0.0007350249248692464</v>
+      </c>
+      <c r="G74">
+        <v>0.05526684207429688</v>
+      </c>
+      <c r="H74">
+        <v>-0.1123858924126134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09695826762689422</v>
+        <v>0.1018246283989049</v>
       </c>
       <c r="C75">
-        <v>0.04775658320796537</v>
+        <v>0.02663480604506292</v>
       </c>
       <c r="D75">
-        <v>-0.006458485298807204</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.01497348601957534</v>
+      </c>
+      <c r="E75">
+        <v>-0.002552716788352411</v>
+      </c>
+      <c r="F75">
+        <v>-0.02139045997196091</v>
+      </c>
+      <c r="G75">
+        <v>0.02633073229464282</v>
+      </c>
+      <c r="H75">
+        <v>-0.1105692542253691</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1324609094178257</v>
+        <v>0.142167348799841</v>
       </c>
       <c r="C76">
-        <v>0.08005282312569212</v>
+        <v>0.0585395139590679</v>
       </c>
       <c r="D76">
-        <v>-0.04365177195254546</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0475240475496306</v>
+      </c>
+      <c r="E76">
+        <v>-0.01664406541937176</v>
+      </c>
+      <c r="F76">
+        <v>-0.04739156240991572</v>
+      </c>
+      <c r="G76">
+        <v>0.01691840494113345</v>
+      </c>
+      <c r="H76">
+        <v>-0.1985727390485732</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1172359407795498</v>
+        <v>0.1076823807974612</v>
       </c>
       <c r="C77">
-        <v>0.008280586634280296</v>
+        <v>-0.01732978612857114</v>
       </c>
       <c r="D77">
-        <v>-0.06688307181858007</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.02466874623088252</v>
+      </c>
+      <c r="E77">
+        <v>-0.0240808208137165</v>
+      </c>
+      <c r="F77">
+        <v>-0.09815986159474098</v>
+      </c>
+      <c r="G77">
+        <v>-0.8903384351769553</v>
+      </c>
+      <c r="H77">
+        <v>0.08308784095007228</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1068099342094729</v>
+        <v>0.1449205869833224</v>
       </c>
       <c r="C78">
-        <v>0.03628053115954189</v>
+        <v>0.03110011209830686</v>
       </c>
       <c r="D78">
-        <v>-0.08390514926502003</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08055179076374323</v>
+      </c>
+      <c r="E78">
+        <v>-0.05560981255519741</v>
+      </c>
+      <c r="F78">
+        <v>-0.05100037545766335</v>
+      </c>
+      <c r="G78">
+        <v>-0.08647745074591534</v>
+      </c>
+      <c r="H78">
+        <v>0.02984005591112862</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1486174090117494</v>
+        <v>0.1514327877293972</v>
       </c>
       <c r="C79">
-        <v>0.0659924511223407</v>
+        <v>0.03850726114498417</v>
       </c>
       <c r="D79">
-        <v>-0.02513046143636747</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02841507907646701</v>
+      </c>
+      <c r="E79">
+        <v>0.01970521287435228</v>
+      </c>
+      <c r="F79">
+        <v>-0.01868590781274865</v>
+      </c>
+      <c r="G79">
+        <v>0.04357250036924679</v>
+      </c>
+      <c r="H79">
+        <v>-0.1666025853338325</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.0420646410975857</v>
+        <v>0.04318371501832385</v>
       </c>
       <c r="C80">
-        <v>0.01945105582228737</v>
+        <v>0.01448537969759323</v>
       </c>
       <c r="D80">
-        <v>-0.02843648959941744</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01219488977555738</v>
+      </c>
+      <c r="E80">
+        <v>0.03019120805869667</v>
+      </c>
+      <c r="F80">
+        <v>-0.008714524350068174</v>
+      </c>
+      <c r="G80">
+        <v>0.02346653130360391</v>
+      </c>
+      <c r="H80">
+        <v>-0.03519873992910184</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1186291983285346</v>
+        <v>0.1204721891227647</v>
       </c>
       <c r="C81">
-        <v>0.059239944007865</v>
+        <v>0.03670967250590393</v>
       </c>
       <c r="D81">
-        <v>-0.02897915530152642</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02379946509496764</v>
+      </c>
+      <c r="E81">
+        <v>-0.009252467330195765</v>
+      </c>
+      <c r="F81">
+        <v>-0.01929411404554836</v>
+      </c>
+      <c r="G81">
+        <v>0.05929822434248508</v>
+      </c>
+      <c r="H81">
+        <v>-0.150462525529555</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1302969550357052</v>
+        <v>0.1314168548291431</v>
       </c>
       <c r="C82">
-        <v>0.07027213098020954</v>
+        <v>0.04856208376267671</v>
       </c>
       <c r="D82">
-        <v>-0.01662514282281329</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.02725522358293986</v>
+      </c>
+      <c r="E82">
+        <v>0.01875078691824125</v>
+      </c>
+      <c r="F82">
+        <v>-0.05061033101215251</v>
+      </c>
+      <c r="G82">
+        <v>0.05600080138946943</v>
+      </c>
+      <c r="H82">
+        <v>-0.2133114911467481</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07455457315938163</v>
+        <v>0.08570577412950708</v>
       </c>
       <c r="C83">
-        <v>-0.01789381178269858</v>
+        <v>-0.0301145149343808</v>
       </c>
       <c r="D83">
-        <v>-0.03209258499983435</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03368098439236244</v>
+      </c>
+      <c r="E83">
+        <v>-0.02147805139290832</v>
+      </c>
+      <c r="F83">
+        <v>-0.05630450281432133</v>
+      </c>
+      <c r="G83">
+        <v>0.08161899905330544</v>
+      </c>
+      <c r="H83">
+        <v>0.05312458624218532</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02958933784205403</v>
+        <v>0.03738839025472868</v>
       </c>
       <c r="C84">
-        <v>0.02856555904842311</v>
+        <v>0.02324012324859692</v>
       </c>
       <c r="D84">
-        <v>-0.02784203076675132</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03135544372264474</v>
+      </c>
+      <c r="E84">
+        <v>-0.02828325549237819</v>
+      </c>
+      <c r="F84">
+        <v>0.0504531203190946</v>
+      </c>
+      <c r="G84">
+        <v>0.06540181537399101</v>
+      </c>
+      <c r="H84">
+        <v>-0.002532100467913407</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1211984853441655</v>
+        <v>0.1224945870465691</v>
       </c>
       <c r="C85">
-        <v>0.04464016479944347</v>
+        <v>0.02338581199575475</v>
       </c>
       <c r="D85">
-        <v>-0.01669376556793193</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.02043748668684326</v>
+      </c>
+      <c r="E85">
+        <v>-0.01558659632724559</v>
+      </c>
+      <c r="F85">
+        <v>-0.03844357419411028</v>
+      </c>
+      <c r="G85">
+        <v>0.03376432740432644</v>
+      </c>
+      <c r="H85">
+        <v>-0.1583428423953135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05493262833604648</v>
+        <v>0.05842517518905434</v>
       </c>
       <c r="C86">
-        <v>0.02153219291735861</v>
+        <v>0.01115166372672534</v>
       </c>
       <c r="D86">
-        <v>-0.03331173092569589</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03169667926662884</v>
+      </c>
+      <c r="E86">
+        <v>-0.05785197136930806</v>
+      </c>
+      <c r="F86">
+        <v>-0.02467160504694457</v>
+      </c>
+      <c r="G86">
+        <v>0.02746453915245042</v>
+      </c>
+      <c r="H86">
+        <v>0.01123638119897183</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1189066498148759</v>
+        <v>0.1224047148838309</v>
       </c>
       <c r="C87">
-        <v>0.06523381108319799</v>
+        <v>0.03466995972185064</v>
       </c>
       <c r="D87">
-        <v>-0.07604309780432669</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07080801166694238</v>
+      </c>
+      <c r="E87">
+        <v>-0.02233233603244394</v>
+      </c>
+      <c r="F87">
+        <v>-0.01282614808615396</v>
+      </c>
+      <c r="G87">
+        <v>-0.1399809926653052</v>
+      </c>
+      <c r="H87">
+        <v>0.02872097088220417</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05305459746473969</v>
+        <v>0.06067246594159557</v>
       </c>
       <c r="C88">
-        <v>0.02817022123999666</v>
+        <v>0.02006381008258828</v>
       </c>
       <c r="D88">
-        <v>-0.02248017362124309</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03483658114563301</v>
+      </c>
+      <c r="E88">
+        <v>-0.0164292696647146</v>
+      </c>
+      <c r="F88">
+        <v>-0.008843919143544855</v>
+      </c>
+      <c r="G88">
+        <v>-0.003031945351812751</v>
+      </c>
+      <c r="H88">
+        <v>-0.05520977765919902</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.0886235906854029</v>
+        <v>0.09580553776940537</v>
       </c>
       <c r="C89">
-        <v>0.06756417446752151</v>
+        <v>0.09308226958076123</v>
       </c>
       <c r="D89">
-        <v>0.3269879548962192</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3482355518015495</v>
+      </c>
+      <c r="E89">
+        <v>-0.07034994482211185</v>
+      </c>
+      <c r="F89">
+        <v>-0.07768283373548858</v>
+      </c>
+      <c r="G89">
+        <v>0.01945369296460637</v>
+      </c>
+      <c r="H89">
+        <v>-0.004768694602756239</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07496000038181887</v>
+        <v>0.07815751972327514</v>
       </c>
       <c r="C90">
-        <v>0.05535547281111752</v>
+        <v>0.07627543908038933</v>
       </c>
       <c r="D90">
-        <v>0.3104917319345925</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.3026646786943125</v>
+      </c>
+      <c r="E90">
+        <v>-0.06479824649093097</v>
+      </c>
+      <c r="F90">
+        <v>-0.001140542910248524</v>
+      </c>
+      <c r="G90">
+        <v>0.006461089162296495</v>
+      </c>
+      <c r="H90">
+        <v>-0.001583893319112676</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08917377527703127</v>
+        <v>0.09115978513600148</v>
       </c>
       <c r="C91">
-        <v>0.05079905105151601</v>
+        <v>0.0306823722677872</v>
       </c>
       <c r="D91">
-        <v>-0.0234336649100508</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03127322693636816</v>
+      </c>
+      <c r="E91">
+        <v>-0.00673094955082639</v>
+      </c>
+      <c r="F91">
+        <v>-0.004061429725610141</v>
+      </c>
+      <c r="G91">
+        <v>0.0522968505967424</v>
+      </c>
+      <c r="H91">
+        <v>-0.08337226874615181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07580448444436469</v>
+        <v>0.07844328492651886</v>
       </c>
       <c r="C92">
-        <v>0.07073644697527572</v>
+        <v>0.09495979310187806</v>
       </c>
       <c r="D92">
-        <v>0.3404050380524334</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3432678967798214</v>
+      </c>
+      <c r="E92">
+        <v>-0.04016700083854355</v>
+      </c>
+      <c r="F92">
+        <v>-0.04733159480286799</v>
+      </c>
+      <c r="G92">
+        <v>-0.01751038685251902</v>
+      </c>
+      <c r="H92">
+        <v>-0.01458567875603371</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06663408859111115</v>
+        <v>0.07548330761791847</v>
       </c>
       <c r="C93">
-        <v>0.06245924204545025</v>
+        <v>0.08902726235524383</v>
       </c>
       <c r="D93">
-        <v>0.3098583545422505</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.3058262851218661</v>
+      </c>
+      <c r="E93">
+        <v>-0.02309008819526133</v>
+      </c>
+      <c r="F93">
+        <v>-0.03737051030656125</v>
+      </c>
+      <c r="G93">
+        <v>-0.01804821673484248</v>
+      </c>
+      <c r="H93">
+        <v>0.01181967466692702</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1356631423878006</v>
+        <v>0.1288408035871883</v>
       </c>
       <c r="C94">
-        <v>0.04464877334827098</v>
+        <v>0.01422571811886516</v>
       </c>
       <c r="D94">
-        <v>-0.03713346523471459</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04595674870549738</v>
+      </c>
+      <c r="E94">
+        <v>0.0174955611139018</v>
+      </c>
+      <c r="F94">
+        <v>-0.01260010618346984</v>
+      </c>
+      <c r="G94">
+        <v>0.06452593724881159</v>
+      </c>
+      <c r="H94">
+        <v>-0.09703850134400584</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1233016467827818</v>
+        <v>0.1289020425405815</v>
       </c>
       <c r="C95">
-        <v>0.0272105935159135</v>
+        <v>0.000614420193001039</v>
       </c>
       <c r="D95">
-        <v>-0.06537422709227658</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.06663349103273626</v>
+      </c>
+      <c r="E95">
+        <v>-0.01395630296681439</v>
+      </c>
+      <c r="F95">
+        <v>-0.03878897299776244</v>
+      </c>
+      <c r="G95">
+        <v>-0.01364826702307631</v>
+      </c>
+      <c r="H95">
+        <v>0.04131320145888341</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2206655083547407</v>
+        <v>0.2055073455976161</v>
       </c>
       <c r="C97">
-        <v>0.03833064357490194</v>
+        <v>-0.00599771970005466</v>
       </c>
       <c r="D97">
-        <v>0.1056638112662789</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.08297163563723987</v>
+      </c>
+      <c r="E97">
+        <v>0.2144738554876944</v>
+      </c>
+      <c r="F97">
+        <v>0.9018434344058588</v>
+      </c>
+      <c r="G97">
+        <v>-0.06572912769813671</v>
+      </c>
+      <c r="H97">
+        <v>-0.01441846085367148</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2505659722556898</v>
+        <v>0.2760182132297664</v>
       </c>
       <c r="C98">
-        <v>0.06090656625591434</v>
+        <v>0.02285676322864983</v>
       </c>
       <c r="D98">
-        <v>-0.03366071087059591</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.054796614938055</v>
+      </c>
+      <c r="E98">
+        <v>0.182926524732462</v>
+      </c>
+      <c r="F98">
+        <v>-0.07053802070644753</v>
+      </c>
+      <c r="G98">
+        <v>0.2357011234634359</v>
+      </c>
+      <c r="H98">
+        <v>0.2519598721587912</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4030175175459567</v>
+        <v>0.2697690050125526</v>
       </c>
       <c r="C99">
-        <v>-0.8979589144946756</v>
+        <v>-0.9319913276225714</v>
       </c>
       <c r="D99">
-        <v>0.04863117163465278</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.1585441194832485</v>
+      </c>
+      <c r="E99">
+        <v>-0.07394850668556845</v>
+      </c>
+      <c r="F99">
+        <v>-0.058827618036264</v>
+      </c>
+      <c r="G99">
+        <v>0.02443025979794232</v>
+      </c>
+      <c r="H99">
+        <v>-0.07071217996051997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04198991618084355</v>
+        <v>0.04859470966868934</v>
       </c>
       <c r="C101">
-        <v>0.02947830966760437</v>
+        <v>0.02603323436636196</v>
       </c>
       <c r="D101">
-        <v>-0.009199317417214624</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.008440211521884644</v>
+      </c>
+      <c r="E101">
+        <v>-0.05949221165736824</v>
+      </c>
+      <c r="F101">
+        <v>-0.008476884818804853</v>
+      </c>
+      <c r="G101">
+        <v>0.0104129232703675</v>
+      </c>
+      <c r="H101">
+        <v>-0.07411033504742205</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
